--- a/Finflux Automation Excels/Client/5034-DISBURSELOANon01Jan2015-writeoff-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-Recover.xlsx
+++ b/Finflux Automation Excels/Client/5034-DISBURSELOANon01Jan2015-writeoff-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-Recover.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -255,6 +261,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -597,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,8 +666,8 @@
       <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
+      <c r="F3" s="12">
+        <v>187.7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,6 +712,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
